--- a/rpdr_s9_stats.xlsx
+++ b/rpdr_s9_stats.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="3900" windowWidth="25360" windowHeight="14220" tabRatio="500"/>
+    <workbookView xWindow="1220" yWindow="1820" windowWidth="14440" windowHeight="11340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -140,6 +144,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H14" totalsRowShown="0">
+  <autoFilter ref="A1:H14"/>
+  <sortState ref="A2:H14">
+    <sortCondition ref="A1:A14"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Queen"/>
+    <tableColumn id="2" name="Evan"/>
+    <tableColumn id="3" name="TWA"/>
+    <tableColumn id="4" name="Luke"/>
+    <tableColumn id="5" name="SBA"/>
+    <tableColumn id="6" name="Justin"/>
+    <tableColumn id="7" name="Thomas"/>
+    <tableColumn id="8" name="Mean" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(B2:G2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,7 +493,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,272 +529,272 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1">
         <f>AVERAGE(B2:G2)</f>
-        <v>8.5</v>
+        <v>6.083333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1">
         <f>AVERAGE(B3:G3)</f>
-        <v>8.4166666666666661</v>
+        <v>6.458333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1">
         <f>AVERAGE(B4:G4)</f>
-        <v>7.833333333333333</v>
+        <v>8.6666666666666661</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5" s="1">
         <f>AVERAGE(B5:G5)</f>
-        <v>7.833333333333333</v>
+        <v>5.083333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>7.5</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1">
         <f>AVERAGE(B6:G6)</f>
-        <v>7.083333333333333</v>
+        <v>5.583333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>8.75</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1">
         <f>AVERAGE(B7:G7)</f>
-        <v>6.791666666666667</v>
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
         <f>AVERAGE(B8:G8)</f>
-        <v>6.75</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
+        <v>8.5</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
       <c r="E9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1">
         <f>AVERAGE(B9:G9)</f>
-        <v>6.5</v>
+        <v>7.916666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
+        <v>6.5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
         <v>7.5</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
       </c>
       <c r="G10">
         <v>7</v>
       </c>
       <c r="H10" s="1">
         <f>AVERAGE(B10:G10)</f>
-        <v>6.416666666666667</v>
+        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>7.5</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="1">
         <f>AVERAGE(B11:G11)</f>
-        <v>6.333333333333333</v>
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -791,65 +817,65 @@
         <v>7.5</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1">
         <f>AVERAGE(B12:G12)</f>
-        <v>6.333333333333333</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <f>AVERAGE(B13:G13)</f>
-        <v>5.416666666666667</v>
+        <v>4.083333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
         <f>AVERAGE(B14:G14)</f>
-        <v>4.916666666666667</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -875,7 +901,7 @@
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>7.384615384615385</v>
+        <v>4.5384615384615383</v>
       </c>
     </row>
   </sheetData>
@@ -883,5 +909,8 @@
     <sortCondition descending="1" ref="H2:H14"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>